--- a/Fase3_ValueBettingAnalysis/KNN_RFOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/KNN_RFOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
